--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Seleniumbasics\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E9A26-CA1C-4CFB-BB61-42E8DF995F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9D8164-3A85-4AF8-94E5-5B2B6BDC29F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Reset" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>xyzdfhdfhd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -75,10 +85,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -364,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -395,4 +408,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD43E99-7450-4855-BADD-C5ADFF30CBA0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{51CF0241-D935-41D7-9C46-586A84F9422C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{1D035F6A-9AA3-4C02-8BA9-825DF0A062A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9D8164-3A85-4AF8-94E5-5B2B6BDC29F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FF72C-EF91-49E8-8F25-0DFD371451B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Reset" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FF72C-EF91-49E8-8F25-0DFD371451B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3356F0D-FD36-4182-9980-9395DA70964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="ResetTest" sheetId="2" r:id="rId2"/>
+    <sheet name="UserPage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -41,6 +39,21 @@
   </si>
   <si>
     <t>xyzdfhdfhd@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>p@gmail.com</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>poojaprempassword</t>
+  </si>
+  <si>
+    <t>Ammukutty</t>
   </si>
 </sst>
 </file>
@@ -378,7 +391,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -390,21 +403,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>123456</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="poojapremkumar@gmail.com" xr:uid="{C0C745A8-E24A-447D-A3DD-E694A2004C13}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{89093881-10D1-4A9D-9350-37123DB82EE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -414,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD43E99-7450-4855-BADD-C5ADFF30CBA0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -425,18 +441,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -446,4 +462,40 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC0D14-4491-4528-B55C-E2FFE139B396}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3356F0D-FD36-4182-9980-9395DA70964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5309F-0CE5-4117-B189-45B08D2FB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Ammukutty</t>
+  </si>
+  <si>
+    <t>User added Successfully</t>
   </si>
 </sst>
 </file>
@@ -466,15 +469,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC0D14-4491-4528-B55C-E2FFE139B396}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
     <col min="2" max="2" width="25.08984375" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" customWidth="1"/>
   </cols>
@@ -495,6 +498,11 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5309F-0CE5-4117-B189-45B08D2FB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B82025E-1398-4EDC-9917-AEDD286F427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -53,10 +53,13 @@
     <t>poojaprempassword</t>
   </si>
   <si>
-    <t>Ammukutty</t>
-  </si>
-  <si>
     <t>User added Successfully</t>
+  </si>
+  <si>
+    <t>AmmukuttyA</t>
+  </si>
+  <si>
+    <t>We have e-mailed your password reset link!</t>
   </si>
 </sst>
 </file>
@@ -431,26 +434,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD43E99-7450-4855-BADD-C5ADFF30CBA0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,13 +479,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC0D14-4491-4528-B55C-E2FFE139B396}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="49.453125" customWidth="1"/>
     <col min="2" max="2" width="25.08984375" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" customWidth="1"/>
   </cols>
@@ -492,7 +500,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -500,7 +508,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B82025E-1398-4EDC-9917-AEDD286F427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE274F2-CDE5-4300-AAFB-A05845E8C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>We have e-mailed your password reset link!</t>
+  </si>
+  <si>
+    <t>pooja@gmail.com</t>
+  </si>
+  <si>
+    <t>PoojaPremkumar</t>
+  </si>
+  <si>
+    <t>poojaprem</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD43E99-7450-4855-BADD-C5ADFF30CBA0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -477,9 +486,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC0D14-4491-4528-B55C-E2FFE139B396}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -490,28 +499,47 @@
     <col min="3" max="3" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="pooja1@gmail.com" xr:uid="{245D12E9-590B-4425-8F03-753EF88A0DA1}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{244DE1E0-14F4-4310-BCEC-64D1EBE8ABD6}"/>
+    <hyperlink ref="C2" r:id="rId3" display="pooja@1234" xr:uid="{B468917D-D038-4E14-827B-6FA294759F73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE274F2-CDE5-4300-AAFB-A05845E8C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0234C9-9A48-4256-918A-0E97B3BB2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0234C9-9A48-4256-918A-0E97B3BB2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C5F09-962F-4B9D-B5B2-DADBF70A9B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="ResetTest" sheetId="2" r:id="rId2"/>
     <sheet name="UserPage" sheetId="4" r:id="rId3"/>
+    <sheet name="EditTest" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -62,13 +63,13 @@
     <t>We have e-mailed your password reset link!</t>
   </si>
   <si>
-    <t>pooja@gmail.com</t>
-  </si>
-  <si>
-    <t>PoojaPremkumar</t>
-  </si>
-  <si>
-    <t>poojaprem</t>
+    <t>pooja2@gmail.com</t>
+  </si>
+  <si>
+    <t>ammup</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -405,9 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -446,7 +445,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC0D14-4491-4528-B55C-E2FFE139B396}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,8 +516,8 @@
       <c r="B2">
         <v>99</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+      <c r="C2" s="1">
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -528,7 +527,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -542,4 +541,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA632847-BA85-4B5F-B77C-324B4DE6055C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-1/src/test/resources/TestData1.xlsx
+++ b/Project-1/src/test/resources/TestData1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja\git\Seleniumbasics\Project-1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C5F09-962F-4B9D-B5B2-DADBF70A9B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8D958-0B45-4290-9733-4060938D9215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3110" yWindow="2460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>File uploaded successfully</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -429,6 +434,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA632847-BA85-4B5F-B77C-324B4DE6055C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
